--- a/biology/Botanique/Tabernaemontana_hallei/Tabernaemontana_hallei.xlsx
+++ b/biology/Botanique/Tabernaemontana_hallei/Tabernaemontana_hallei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabernaemontana hallei (Boiteau) Leeuwenb. est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Tabernaemontana, présente au Cameroun et au Gabon.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique hallei rend hommage au botaniste et collecteur français Nicolas Hallé[2], qui récolta l'holotype au Gabon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique hallei rend hommage au botaniste et collecteur français Nicolas Hallé, qui récolta l'holotype au Gabon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste glabre, dont la hauteur est comprise entre 0,6 et 2,5 m de hauteur, poussant sur les berges marégageuses dans la forêt tropicale, à une altitude comprise entre 0 et 700 m[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste glabre, dont la hauteur est comprise entre 0,6 et 2,5 m de hauteur, poussant sur les berges marégageuses dans la forêt tropicale, à une altitude comprise entre 0 et 700 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, l'espèce a été observée dans plusieurs localités au sud du Cameroun et au Gabon. Elle est considérée comme vulnérable[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, l'espèce a été observée dans plusieurs localités au sud du Cameroun et au Gabon. Elle est considérée comme vulnérable.
 </t>
         </is>
       </c>
